--- a/database/industries/ravankar/sheranol/income/quarterly/rial.xlsx
+++ b/database/industries/ravankar/sheranol/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ravankar\sheranol\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B6819D-6986-49E1-A33B-45B6DCEBD874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357FB999-A967-4D04-BE8F-7ABE6EE70717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-09-16 (5)</t>
+  </si>
+  <si>
+    <t>1400-11-06 (3)</t>
+  </si>
+  <si>
+    <t>1401-04-08 (10)</t>
+  </si>
+  <si>
+    <t>1401-04-30 (3)</t>
+  </si>
+  <si>
+    <t>1401-09-15 (4)</t>
   </si>
   <si>
     <t>1401-10-27 (3)</t>
@@ -588,20 +618,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -609,8 +641,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,8 +657,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -631,8 +673,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -640,8 +687,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,8 +703,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -662,8 +719,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -671,8 +733,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -692,29 +759,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -722,94 +819,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>11095313</v>
+      </c>
+      <c r="E11" s="13">
+        <v>16643849</v>
+      </c>
+      <c r="F11" s="13">
+        <v>17642295</v>
+      </c>
+      <c r="G11" s="13">
+        <v>16408565</v>
+      </c>
+      <c r="H11" s="13">
+        <v>20863589</v>
+      </c>
+      <c r="I11" s="13">
         <v>25500057</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>25149578</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>31425871</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>35262270</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>31129289</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-8241276</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-9962766</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-13267235</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-11691296</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-15312482</v>
+      </c>
+      <c r="I12" s="11">
         <v>-20087762</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-22052096</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-24980716</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-26292242</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-23505406</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>2854037</v>
+      </c>
+      <c r="E13" s="15">
+        <v>6681083</v>
+      </c>
+      <c r="F13" s="15">
+        <v>4375060</v>
+      </c>
+      <c r="G13" s="15">
+        <v>4717269</v>
+      </c>
+      <c r="H13" s="15">
+        <v>5551107</v>
+      </c>
+      <c r="I13" s="15">
         <v>5412295</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>3097482</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>6445155</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>8970028</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>7623883</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-322413</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-512763</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-793745</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-480528</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-548542</v>
+      </c>
+      <c r="I14" s="11">
         <v>-567666</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-788381</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-1089496</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-944456</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-1049431</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -827,157 +989,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>98434</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-18340</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-940425</v>
+      </c>
+      <c r="G16" s="11">
+        <v>123949</v>
+      </c>
+      <c r="H16" s="11">
+        <v>198680</v>
+      </c>
+      <c r="I16" s="11">
         <v>185610</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>171124</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>126547</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>1015997</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>391158</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>2630058</v>
+      </c>
+      <c r="E17" s="15">
+        <v>6149980</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2640890</v>
+      </c>
+      <c r="G17" s="15">
+        <v>4360690</v>
+      </c>
+      <c r="H17" s="15">
+        <v>5201245</v>
+      </c>
+      <c r="I17" s="15">
         <v>5030239</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>2480225</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>5482206</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>9041569</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>6965610</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-243216</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-288093</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-523754</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-494584</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-513338</v>
+      </c>
+      <c r="I18" s="11">
         <v>-369438</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-492889</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-407735</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-630062</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-440085</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>84589</v>
+      </c>
+      <c r="E19" s="13">
+        <v>43819</v>
+      </c>
+      <c r="F19" s="13">
+        <v>420484</v>
+      </c>
+      <c r="G19" s="13">
+        <v>4406</v>
+      </c>
+      <c r="H19" s="13">
+        <v>49499</v>
+      </c>
+      <c r="I19" s="13">
         <v>722</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>431073</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>759</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>99792</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>74217</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>2471431</v>
+      </c>
+      <c r="E20" s="17">
+        <v>5905706</v>
+      </c>
+      <c r="F20" s="17">
+        <v>2537620</v>
+      </c>
+      <c r="G20" s="17">
+        <v>3870512</v>
+      </c>
+      <c r="H20" s="17">
+        <v>4737406</v>
+      </c>
+      <c r="I20" s="17">
         <v>4661523</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>2418409</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>5075230</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>8511299</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>6599742</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-636657</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-56092</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-167897</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-439276</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-766416</v>
+      </c>
+      <c r="I21" s="13">
         <v>-492327</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-483115</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-693541</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-2151248</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-697641</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>1834774</v>
+      </c>
+      <c r="E22" s="17">
+        <v>5849614</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2369723</v>
+      </c>
+      <c r="G22" s="17">
+        <v>3431236</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3970990</v>
+      </c>
+      <c r="I22" s="17">
         <v>4169196</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>1935294</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>4381689</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>6360051</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>5902101</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -995,59 +1277,104 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>1834774</v>
+      </c>
+      <c r="E24" s="17">
+        <v>5849614</v>
+      </c>
+      <c r="F24" s="17">
+        <v>2369723</v>
+      </c>
+      <c r="G24" s="17">
+        <v>3431236</v>
+      </c>
+      <c r="H24" s="17">
+        <v>3970990</v>
+      </c>
+      <c r="I24" s="17">
         <v>4169196</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>1935294</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>4381689</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>6360051</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>5902101</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>31</v>
+      <c r="D25" s="13">
+        <v>917</v>
+      </c>
+      <c r="E25" s="13">
+        <v>2925</v>
       </c>
       <c r="F25" s="13">
+        <v>1185</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1716</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1986</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="13">
         <v>2191</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>3180</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M25" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="E26" s="11">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="F26" s="11">
         <v>2000000</v>
@@ -1056,31 +1383,61 @@
         <v>2000000</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>917</v>
+      </c>
+      <c r="E27" s="13">
+        <v>2925</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1185</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1716</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1986</v>
+      </c>
+      <c r="I27" s="13">
         <v>2085</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>968</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>2191</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>3180</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>2951</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1088,6 +1445,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/ravankar/sheranol/income/quarterly/rial.xlsx
+++ b/database/industries/ravankar/sheranol/income/quarterly/rial.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ravankar\sheranol\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357FB999-A967-4D04-BE8F-7ABE6EE70717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -157,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,10 +616,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1386,10 +1387,10 @@
         <v>2000000</v>
       </c>
       <c r="I26" s="11">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J26" s="11">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="K26" s="11">
         <v>2000000</v>
@@ -1398,7 +1399,7 @@
         <v>2000000</v>
       </c>
       <c r="M26" s="11">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">

--- a/database/industries/ravankar/sheranol/income/quarterly/rial.xlsx
+++ b/database/industries/ravankar/sheranol/income/quarterly/rial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ravankar\sheranol\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFADBF6-3CA2-44F1-8FF4-9E703CF8C2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -84,10 +85,10 @@
     <t>1401-09-15 (4)</t>
   </si>
   <si>
-    <t>1401-10-27 (3)</t>
-  </si>
-  <si>
-    <t>1401-10-27 (6)</t>
+    <t>1402-01-28 (5)</t>
+  </si>
+  <si>
+    <t>1402-01-28 (8)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -96,7 +97,7 @@
     <t>1401-09-15 (2)</t>
   </si>
   <si>
-    <t>1401-10-27</t>
+    <t>1402-01-28 (3)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -142,9 +143,6 @@
   </si>
   <si>
     <t>سود هر سهم پس از کسر مالیات</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سرمایه</t>
@@ -156,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,14 +614,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -634,7 +630,7 @@
     <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -648,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -694,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -710,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -726,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -740,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -776,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -812,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,7 +822,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -850,7 +846,7 @@
         <v>25500057</v>
       </c>
       <c r="J11" s="13">
-        <v>25149578</v>
+        <v>25152658</v>
       </c>
       <c r="K11" s="13">
         <v>31425871</v>
@@ -862,7 +858,7 @@
         <v>31129289</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -886,7 +882,7 @@
         <v>-20087762</v>
       </c>
       <c r="J12" s="11">
-        <v>-22052096</v>
+        <v>-20998309</v>
       </c>
       <c r="K12" s="11">
         <v>-24980716</v>
@@ -898,7 +894,7 @@
         <v>-23505406</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -922,7 +918,7 @@
         <v>5412295</v>
       </c>
       <c r="J13" s="15">
-        <v>3097482</v>
+        <v>4154349</v>
       </c>
       <c r="K13" s="15">
         <v>6445155</v>
@@ -934,7 +930,7 @@
         <v>7623883</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -970,7 +966,7 @@
         <v>-1049431</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1006,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1042,7 +1038,7 @@
         <v>391158</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1066,7 +1062,7 @@
         <v>5030239</v>
       </c>
       <c r="J17" s="15">
-        <v>2480225</v>
+        <v>3537092</v>
       </c>
       <c r="K17" s="15">
         <v>5482206</v>
@@ -1078,7 +1074,7 @@
         <v>6965610</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1114,7 +1110,7 @@
         <v>-440085</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1150,7 +1146,7 @@
         <v>74217</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
@@ -1174,7 +1170,7 @@
         <v>4661523</v>
       </c>
       <c r="J20" s="17">
-        <v>2418409</v>
+        <v>3475276</v>
       </c>
       <c r="K20" s="17">
         <v>5075230</v>
@@ -1186,7 +1182,7 @@
         <v>6599742</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1222,7 +1218,7 @@
         <v>-697641</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
@@ -1246,7 +1242,7 @@
         <v>4169196</v>
       </c>
       <c r="J22" s="17">
-        <v>1935294</v>
+        <v>2992161</v>
       </c>
       <c r="K22" s="17">
         <v>4381689</v>
@@ -1258,7 +1254,7 @@
         <v>5902101</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1294,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1318,7 +1314,7 @@
         <v>4169196</v>
       </c>
       <c r="J24" s="17">
-        <v>1935294</v>
+        <v>2992161</v>
       </c>
       <c r="K24" s="17">
         <v>4381689</v>
@@ -1330,7 +1326,7 @@
         <v>5902101</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
@@ -1350,11 +1346,11 @@
       <c r="H25" s="13">
         <v>1986</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>41</v>
+      <c r="I25" s="13">
+        <v>2085</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1496</v>
       </c>
       <c r="K25" s="13">
         <v>2191</v>
@@ -1362,13 +1358,13 @@
       <c r="L25" s="13">
         <v>3180</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="13">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1402,9 +1398,9 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1426,7 +1422,7 @@
         <v>2085</v>
       </c>
       <c r="J27" s="13">
-        <v>968</v>
+        <v>1496</v>
       </c>
       <c r="K27" s="13">
         <v>2191</v>
@@ -1438,7 +1434,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
